--- a/fixtures/09 - boosters.xlsx
+++ b/fixtures/09 - boosters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D346E9E-25D5-422F-94D8-0BB777330496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98840A5B-3CCA-49AD-BEB5-B3E68D0C908D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1395" windowWidth="23610" windowHeight="18390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1260" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>tab</t>
   </si>
@@ -83,6 +83,36 @@
   </si>
   <si>
     <t>booster</t>
+  </si>
+  <si>
+    <t>VG Max Booster - 20mg</t>
+  </si>
+  <si>
+    <t>VG Max Booster - 10mg</t>
+  </si>
+  <si>
+    <t>VG Max Booster - 15mg</t>
+  </si>
+  <si>
+    <t>Velvet - 20mg</t>
+  </si>
+  <si>
+    <t>Velvet - 6mg</t>
+  </si>
+  <si>
+    <t>Velvet - 18mg</t>
+  </si>
+  <si>
+    <t>Velvet - 12mg</t>
+  </si>
+  <si>
+    <t>Velvet - 15mg</t>
+  </si>
+  <si>
+    <t>Velvet - 10mg</t>
+  </si>
+  <si>
+    <t>Nic Salt Dripper - 20mg</t>
   </si>
 </sst>
 </file>
@@ -424,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -457,10 +487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BECEFDC-C527-407A-9BBF-AF98CD28B0D3}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +687,240 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
+    <sortCondition ref="A9:A17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>